--- a/medicine/Pharmacie/Liste_de_sociétés_d'histoire_de_la_pharmacie/Liste_de_sociétés_d'histoire_de_la_pharmacie.xlsx
+++ b/medicine/Pharmacie/Liste_de_sociétés_d'histoire_de_la_pharmacie/Liste_de_sociétés_d'histoire_de_la_pharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_soci%C3%A9t%C3%A9s_d%27histoire_de_la_pharmacie</t>
+          <t>Liste_de_sociétés_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page recense une liste de sociétés d'histoire de la pharmacie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_soci%C3%A9t%C3%A9s_d%27histoire_de_la_pharmacie</t>
+          <t>Liste_de_sociétés_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Académie canadienne d'histoire de la pharmacie
 Société québécoise d'histoire de la pharmacie</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_soci%C3%A9t%C3%A9s_d%27histoire_de_la_pharmacie</t>
+          <t>Liste_de_sociétés_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>American Institute of the history of pharmacy</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_soci%C3%A9t%C3%A9s_d%27histoire_de_la_pharmacie</t>
+          <t>Liste_de_sociétés_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +588,12 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Société d'Histoire de la Pharmacie
-Sauvegarde du patrimoine pharmaceutique[1]</t>
+Sauvegarde du patrimoine pharmaceutique</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_soci%C3%A9t%C3%A9s_d%27histoire_de_la_pharmacie</t>
+          <t>Liste_de_sociétés_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Royaume-Uni</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>British Society for the history of pharmacy</t>
         </is>
@@ -615,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_soci%C3%A9t%C3%A9s_d%27histoire_de_la_pharmacie</t>
+          <t>Liste_de_sociétés_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -633,7 +653,9 @@
           <t>Sociétés internationales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Société internationale d'histoire de la pharmacie</t>
         </is>
